--- a/public/abril_2025.xlsx
+++ b/public/abril_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\marzo-lasa\marzo-lasa\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\abril-lasa\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF8B020-D32F-4047-B90A-4C857F03410F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE005AFF-0897-4C8F-A405-CFE291A55C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="73">
   <si>
     <t>CUIL</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>MARZO 2025</t>
+  </si>
+  <si>
+    <t>ABRIL 2025</t>
   </si>
 </sst>
 </file>
@@ -3260,7 +3263,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H21" activeCellId="1" sqref="H23 H21"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3280,7 +3283,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -3343,17 +3346,17 @@
         <v>12</v>
       </c>
       <c r="D3" s="10">
-        <v>1066206.1200000001</v>
+        <v>0</v>
       </c>
       <c r="E3" s="10">
         <v>0</v>
       </c>
       <c r="F3" s="10">
-        <v>330395.52000000002</v>
+        <v>0</v>
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G32" si="0">+D3+E3+F3</f>
-        <v>1396601.6400000001</v>
+        <v>0</v>
       </c>
       <c r="H3" s="10">
         <v>0</v>
@@ -3366,7 +3369,7 @@
       </c>
       <c r="K3" s="11">
         <f t="shared" ref="K3:K32" si="1">+G3+H3</f>
-        <v>1396601.6400000001</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -3381,17 +3384,17 @@
         <v>18</v>
       </c>
       <c r="D4" s="10">
-        <v>1331577</v>
+        <v>0</v>
       </c>
       <c r="E4" s="10">
         <v>0</v>
       </c>
       <c r="F4" s="10">
-        <v>418958.4</v>
+        <v>0</v>
       </c>
       <c r="G4" s="11">
         <f t="shared" si="0"/>
-        <v>1750535.4</v>
+        <v>0</v>
       </c>
       <c r="H4" s="10">
         <v>0</v>
@@ -3404,7 +3407,7 @@
       </c>
       <c r="K4" s="11">
         <f t="shared" si="1"/>
-        <v>1750535.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3418,7 +3421,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="10">
-        <v>1745510.3999999999</v>
+        <v>0</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
@@ -3428,10 +3431,10 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
-        <v>1745510.3999999999</v>
+        <v>0</v>
       </c>
       <c r="H5" s="10">
-        <v>170952.57</v>
+        <v>0</v>
       </c>
       <c r="I5" s="10">
         <v>0</v>
@@ -3441,7 +3444,7 @@
       </c>
       <c r="K5" s="11">
         <f t="shared" si="1"/>
-        <v>1916462.97</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -3456,17 +3459,17 @@
         <v>54</v>
       </c>
       <c r="D6" s="10">
-        <v>936980</v>
+        <v>0</v>
       </c>
       <c r="E6" s="10">
         <v>0</v>
       </c>
       <c r="F6" s="10">
-        <v>284428.48</v>
+        <v>0</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
-        <v>1221408.48</v>
+        <v>0</v>
       </c>
       <c r="H6" s="10">
         <v>0</v>
@@ -3479,7 +3482,7 @@
       </c>
       <c r="K6" s="11">
         <f t="shared" si="1"/>
-        <v>1221408.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3493,7 +3496,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="10">
-        <v>1605619.44</v>
+        <v>0</v>
       </c>
       <c r="E7" s="10">
         <v>0</v>
@@ -3503,7 +3506,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
-        <v>1605619.44</v>
+        <v>0</v>
       </c>
       <c r="H7" s="10">
         <v>0</v>
@@ -3516,7 +3519,7 @@
       </c>
       <c r="K7" s="11">
         <f t="shared" si="1"/>
-        <v>1605619.44</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -3531,7 +3534,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="10">
-        <v>1577949.48</v>
+        <v>0</v>
       </c>
       <c r="E8" s="10">
         <v>0</v>
@@ -3541,7 +3544,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>1577949.48</v>
+        <v>0</v>
       </c>
       <c r="H8" s="10">
         <v>0</v>
@@ -3554,7 +3557,7 @@
       </c>
       <c r="K8" s="11">
         <f t="shared" si="1"/>
-        <v>1577949.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3568,7 +3571,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="10">
-        <v>1366019.28</v>
+        <v>0</v>
       </c>
       <c r="E9" s="10">
         <v>0</v>
@@ -3578,7 +3581,7 @@
       </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
-        <v>1366019.28</v>
+        <v>0</v>
       </c>
       <c r="H9" s="10">
         <v>0</v>
@@ -3591,7 +3594,7 @@
       </c>
       <c r="K9" s="11">
         <f t="shared" si="1"/>
-        <v>1366019.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3605,17 +3608,17 @@
         <v>28</v>
       </c>
       <c r="D10" s="10">
-        <v>973972.92</v>
+        <v>0</v>
       </c>
       <c r="E10" s="10">
         <v>0</v>
       </c>
       <c r="F10" s="10">
-        <v>330395.52000000002</v>
+        <v>0</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>1304368.44</v>
+        <v>0</v>
       </c>
       <c r="H10" s="10">
         <v>0</v>
@@ -3628,7 +3631,7 @@
       </c>
       <c r="K10" s="11">
         <f t="shared" si="1"/>
-        <v>1304368.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3642,17 +3645,17 @@
         <v>32</v>
       </c>
       <c r="D11" s="10">
-        <v>952202.88</v>
+        <v>0</v>
       </c>
       <c r="E11" s="10">
         <v>0</v>
       </c>
       <c r="F11" s="10">
-        <v>330395.52000000002</v>
+        <v>0</v>
       </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>1282598.3999999999</v>
+        <v>0</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
@@ -3665,7 +3668,7 @@
       </c>
       <c r="K11" s="11">
         <f t="shared" si="1"/>
-        <v>1282598.3999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3679,17 +3682,17 @@
         <v>56</v>
       </c>
       <c r="D12" s="10">
-        <v>853970.12</v>
+        <v>0</v>
       </c>
       <c r="E12" s="10">
         <v>0</v>
       </c>
       <c r="F12" s="10">
-        <v>284428.48</v>
+        <v>0</v>
       </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>1138398.6000000001</v>
+        <v>0</v>
       </c>
       <c r="H12" s="10">
         <v>0</v>
@@ -3702,7 +3705,7 @@
       </c>
       <c r="K12" s="11">
         <f t="shared" si="1"/>
-        <v>1138398.6000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3716,20 +3719,20 @@
         <v>36</v>
       </c>
       <c r="D13" s="10">
-        <v>879365.52</v>
+        <v>0</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>
       </c>
       <c r="F13" s="10">
-        <v>284428.48</v>
+        <v>0</v>
       </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>1163794</v>
+        <v>0</v>
       </c>
       <c r="H13" s="10">
-        <v>123465.94</v>
+        <v>0</v>
       </c>
       <c r="I13" s="10">
         <v>0</v>
@@ -3739,7 +3742,7 @@
       </c>
       <c r="K13" s="11">
         <f t="shared" si="1"/>
-        <v>1287259.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3753,7 +3756,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="10">
-        <v>1097765.96</v>
+        <v>0</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -3763,10 +3766,10 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>1097765.96</v>
+        <v>0</v>
       </c>
       <c r="H14" s="10">
-        <v>170952.58</v>
+        <v>0</v>
       </c>
       <c r="I14" s="10">
         <v>0</v>
@@ -3776,7 +3779,7 @@
       </c>
       <c r="K14" s="11">
         <f t="shared" si="1"/>
-        <v>1268718.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3790,7 +3793,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="10">
-        <v>1096156.19</v>
+        <v>0</v>
       </c>
       <c r="E15" s="10">
         <v>0</v>
@@ -3800,7 +3803,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
-        <v>1096156.19</v>
+        <v>0</v>
       </c>
       <c r="H15" s="10">
         <v>0</v>
@@ -3813,7 +3816,7 @@
       </c>
       <c r="K15" s="11">
         <f t="shared" si="1"/>
-        <v>1096156.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3827,7 +3830,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="10">
-        <v>1144659.6000000001</v>
+        <v>0</v>
       </c>
       <c r="E16" s="10">
         <v>0</v>
@@ -3837,7 +3840,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
-        <v>1144659.6000000001</v>
+        <v>0</v>
       </c>
       <c r="H16" s="10">
         <v>0</v>
@@ -3850,7 +3853,7 @@
       </c>
       <c r="K16" s="11">
         <f t="shared" si="1"/>
-        <v>1144659.6000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3864,7 +3867,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="10">
-        <v>1117736.52</v>
+        <v>0</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
@@ -3874,10 +3877,10 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
-        <v>1117736.52</v>
+        <v>0</v>
       </c>
       <c r="H17" s="10">
-        <v>18995.43</v>
+        <v>0</v>
       </c>
       <c r="I17" s="10">
         <v>0</v>
@@ -3887,7 +3890,7 @@
       </c>
       <c r="K17" s="11">
         <f t="shared" si="1"/>
-        <v>1136731.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3901,7 +3904,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="10">
-        <v>1266840.3999999999</v>
+        <v>0</v>
       </c>
       <c r="E18" s="10">
         <v>0</v>
@@ -3911,7 +3914,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
-        <v>1266840.3999999999</v>
+        <v>0</v>
       </c>
       <c r="H18" s="10">
         <v>0</v>
@@ -3924,7 +3927,7 @@
       </c>
       <c r="K18" s="11">
         <f t="shared" si="1"/>
-        <v>1266840.3999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3938,17 +3941,17 @@
         <v>52</v>
       </c>
       <c r="D19" s="10">
-        <v>868446.12</v>
+        <v>0</v>
       </c>
       <c r="E19" s="10">
         <v>0</v>
       </c>
       <c r="F19" s="10">
-        <v>330395.52000000002</v>
+        <v>0</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
-        <v>1198841.6400000001</v>
+        <v>0</v>
       </c>
       <c r="H19" s="10">
         <v>0</v>
@@ -3961,7 +3964,7 @@
       </c>
       <c r="K19" s="11">
         <f t="shared" si="1"/>
-        <v>1198841.6400000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3975,7 +3978,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="10">
-        <v>809318.32</v>
+        <v>0</v>
       </c>
       <c r="E20" s="10">
         <v>0</v>
@@ -3985,7 +3988,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>809318.32</v>
+        <v>0</v>
       </c>
       <c r="H20" s="10">
         <v>0</v>
@@ -3998,7 +4001,7 @@
       </c>
       <c r="K20" s="11">
         <f t="shared" si="1"/>
-        <v>809318.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4012,20 +4015,20 @@
         <v>22</v>
       </c>
       <c r="D21" s="10">
-        <v>803978.02</v>
+        <v>0</v>
       </c>
       <c r="E21" s="10">
         <v>0</v>
       </c>
       <c r="F21" s="10">
-        <v>305154.64</v>
+        <v>0</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="0"/>
-        <v>1109132.6600000001</v>
+        <v>0</v>
       </c>
       <c r="H21" s="10">
-        <v>123465.8</v>
+        <v>0</v>
       </c>
       <c r="I21" s="10">
         <v>0</v>
@@ -4035,7 +4038,7 @@
       </c>
       <c r="K21" s="11">
         <f t="shared" si="1"/>
-        <v>1232598.4600000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4049,7 +4052,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="10">
-        <v>1338143.1599999999</v>
+        <v>0</v>
       </c>
       <c r="E22" s="10">
         <v>0</v>
@@ -4059,7 +4062,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="0"/>
-        <v>1338143.1599999999</v>
+        <v>0</v>
       </c>
       <c r="H22" s="10">
         <v>0</v>
@@ -4072,7 +4075,7 @@
       </c>
       <c r="K22" s="11">
         <f t="shared" si="1"/>
-        <v>1338143.1599999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4086,7 +4089,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="10">
-        <v>1147396.24</v>
+        <v>0</v>
       </c>
       <c r="E23" s="10">
         <v>0</v>
@@ -4096,10 +4099,10 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="0"/>
-        <v>1147396.24</v>
+        <v>0</v>
       </c>
       <c r="H23" s="10">
-        <v>123466.05</v>
+        <v>0</v>
       </c>
       <c r="I23" s="10">
         <v>0</v>
@@ -4109,7 +4112,7 @@
       </c>
       <c r="K23" s="11">
         <f t="shared" si="1"/>
-        <v>1270862.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4123,7 +4126,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="10">
-        <v>915309.14</v>
+        <v>0</v>
       </c>
       <c r="E24" s="10">
         <v>0</v>
@@ -4133,10 +4136,10 @@
       </c>
       <c r="G24" s="11">
         <f t="shared" si="0"/>
-        <v>915309.14</v>
+        <v>0</v>
       </c>
       <c r="H24" s="10">
-        <v>56984.59</v>
+        <v>0</v>
       </c>
       <c r="I24" s="10">
         <v>0</v>
@@ -4146,7 +4149,7 @@
       </c>
       <c r="K24" s="11">
         <f t="shared" si="1"/>
-        <v>972293.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4160,7 +4163,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="10">
-        <v>2700000</v>
+        <v>0</v>
       </c>
       <c r="E25" s="10">
         <v>0</v>
@@ -4170,7 +4173,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" si="0"/>
-        <v>2700000</v>
+        <v>0</v>
       </c>
       <c r="H25" s="10">
         <v>0</v>
@@ -4183,7 +4186,7 @@
       </c>
       <c r="K25" s="11">
         <f t="shared" si="1"/>
-        <v>2700000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4197,7 +4200,7 @@
         <v>59</v>
       </c>
       <c r="D26" s="10">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="E26" s="10">
         <v>0</v>
@@ -4207,7 +4210,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="H26" s="10">
         <v>0</v>
@@ -4220,7 +4223,7 @@
       </c>
       <c r="K26" s="11">
         <f t="shared" si="1"/>
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4234,7 +4237,7 @@
         <v>46</v>
       </c>
       <c r="D27" s="10">
-        <v>895257.8</v>
+        <v>0</v>
       </c>
       <c r="E27" s="10">
         <v>0</v>
@@ -4244,7 +4247,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="0"/>
-        <v>895257.8</v>
+        <v>0</v>
       </c>
       <c r="H27" s="10">
         <v>0</v>
@@ -4257,7 +4260,7 @@
       </c>
       <c r="K27" s="11">
         <f t="shared" si="1"/>
-        <v>895257.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4271,7 +4274,7 @@
         <v>42</v>
       </c>
       <c r="D28" s="10">
-        <v>874941.48</v>
+        <v>0</v>
       </c>
       <c r="E28" s="10">
         <v>0</v>
@@ -4281,7 +4284,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="0"/>
-        <v>874941.48</v>
+        <v>0</v>
       </c>
       <c r="H28" s="10">
         <v>0</v>
@@ -4294,7 +4297,7 @@
       </c>
       <c r="K28" s="11">
         <f t="shared" si="1"/>
-        <v>874941.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4308,7 +4311,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="10">
-        <v>696741.54</v>
+        <v>0</v>
       </c>
       <c r="E29" s="10">
         <v>0</v>
@@ -4318,7 +4321,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="0"/>
-        <v>696741.54</v>
+        <v>0</v>
       </c>
       <c r="H29" s="10">
         <v>0</v>
@@ -4331,7 +4334,7 @@
       </c>
       <c r="K29" s="11">
         <f t="shared" si="1"/>
-        <v>696741.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4345,7 +4348,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="10">
-        <v>886034.48</v>
+        <v>0</v>
       </c>
       <c r="E30" s="10">
         <v>0</v>
@@ -4355,7 +4358,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="0"/>
-        <v>886034.48</v>
+        <v>0</v>
       </c>
       <c r="H30" s="10">
         <v>0</v>
@@ -4368,7 +4371,7 @@
       </c>
       <c r="K30" s="11">
         <f t="shared" si="1"/>
-        <v>886034.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4382,7 +4385,7 @@
         <v>58</v>
       </c>
       <c r="D31" s="10">
-        <v>939359.75</v>
+        <v>0</v>
       </c>
       <c r="E31" s="10">
         <v>0</v>
@@ -4392,7 +4395,7 @@
       </c>
       <c r="G31" s="11">
         <f t="shared" si="0"/>
-        <v>939359.75</v>
+        <v>0</v>
       </c>
       <c r="H31" s="10">
         <v>0</v>
@@ -4405,7 +4408,7 @@
       </c>
       <c r="K31" s="11">
         <f t="shared" si="1"/>
-        <v>939359.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4419,7 +4422,7 @@
         <v>65</v>
       </c>
       <c r="D32" s="10">
-        <v>858364.52</v>
+        <v>0</v>
       </c>
       <c r="E32" s="10">
         <v>0</v>
@@ -4429,7 +4432,7 @@
       </c>
       <c r="G32" s="11">
         <f t="shared" si="0"/>
-        <v>858364.52</v>
+        <v>0</v>
       </c>
       <c r="H32" s="10">
         <v>0</v>
@@ -4442,7 +4445,7 @@
       </c>
       <c r="K32" s="11">
         <f t="shared" si="1"/>
-        <v>858364.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -4451,22 +4454,22 @@
       <c r="C33" s="13"/>
       <c r="D33" s="10">
         <f>SUM(D3:D32)</f>
-        <v>35745822.399999999</v>
+        <v>0</v>
       </c>
       <c r="E33" s="10">
         <v>0</v>
       </c>
       <c r="F33" s="10">
         <f>SUM(F3:F32)</f>
-        <v>2898980.56</v>
+        <v>0</v>
       </c>
       <c r="G33" s="15">
         <f>SUM(G3:G32)</f>
-        <v>38644802.959999993</v>
+        <v>0</v>
       </c>
       <c r="H33" s="10">
         <f>SUM(H3:H32)</f>
-        <v>788282.96</v>
+        <v>0</v>
       </c>
       <c r="I33" s="14">
         <f>SUM(I3:I32)</f>
@@ -4477,7 +4480,7 @@
       </c>
       <c r="K33" s="15">
         <f>SUM(K3:K32)</f>
-        <v>39433085.919999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">

--- a/public/abril_2025.xlsx
+++ b/public/abril_2025.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\abril-lasa\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE005AFF-0897-4C8F-A405-CFE291A55C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33E13B4-A04C-4256-910C-520EFFB92423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MES NORMAL" sheetId="1" r:id="rId1"/>
-    <sheet name="VAC" sheetId="5" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId3"/>
+    <sheet name="MES" sheetId="5" r:id="rId2"/>
+    <sheet name="VAC" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MES NORMAL'!$A$3:$M$33</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="72">
   <si>
     <t>CUIL</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>20-25748481-6</t>
-  </si>
-  <si>
-    <t>MARZO 2025</t>
   </si>
   <si>
     <t>ABRIL 2025</t>
@@ -369,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -404,6 +401,17 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,7 +754,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="10">
-        <v>1066206.1200000001</v>
+        <v>1397795.19</v>
       </c>
       <c r="E3" s="10">
         <v>0</v>
@@ -839,7 +847,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G32" si="0">+D3+E3+F3</f>
-        <v>1066206.1200000001</v>
+        <v>1397795.19</v>
       </c>
       <c r="H3" s="10">
         <v>0</v>
@@ -852,7 +860,7 @@
       </c>
       <c r="K3" s="11">
         <f t="shared" ref="K3:K32" si="1">+G3+H3</f>
-        <v>1066206.1200000001</v>
+        <v>1397795.19</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -867,7 +875,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="10">
-        <v>1331577</v>
+        <v>1653402.57</v>
       </c>
       <c r="E4" s="10">
         <v>0</v>
@@ -877,7 +885,7 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="0"/>
-        <v>1331577</v>
+        <v>1653402.57</v>
       </c>
       <c r="H4" s="10">
         <v>0</v>
@@ -890,7 +898,7 @@
       </c>
       <c r="K4" s="11">
         <f t="shared" si="1"/>
-        <v>1331577</v>
+        <v>1653402.57</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -904,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="10">
-        <v>1745510.3999999999</v>
+        <v>1730241.12</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
@@ -914,10 +922,10 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
-        <v>1745510.3999999999</v>
+        <v>1730241.12</v>
       </c>
       <c r="H5" s="10">
-        <v>170952.57</v>
+        <v>188569.49</v>
       </c>
       <c r="I5" s="10">
         <v>0</v>
@@ -927,7 +935,7 @@
       </c>
       <c r="K5" s="11">
         <f t="shared" si="1"/>
-        <v>1916462.97</v>
+        <v>1918810.61</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -942,7 +950,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="10">
-        <v>936980</v>
+        <v>1202065.18</v>
       </c>
       <c r="E6" s="10">
         <v>0</v>
@@ -952,7 +960,7 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
-        <v>936980</v>
+        <v>1202065.18</v>
       </c>
       <c r="H6" s="10">
         <v>0</v>
@@ -965,7 +973,7 @@
       </c>
       <c r="K6" s="11">
         <f t="shared" si="1"/>
-        <v>936980</v>
+        <v>1202065.18</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -979,17 +987,17 @@
         <v>50</v>
       </c>
       <c r="D7" s="10">
-        <v>1605619.44</v>
+        <v>1396421.67</v>
       </c>
       <c r="E7" s="10">
         <v>0</v>
       </c>
       <c r="F7" s="10">
-        <v>0</v>
+        <v>437811.36</v>
       </c>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
-        <v>1605619.44</v>
+        <v>1834233.0299999998</v>
       </c>
       <c r="H7" s="10">
         <v>0</v>
@@ -1002,7 +1010,7 @@
       </c>
       <c r="K7" s="11">
         <f t="shared" si="1"/>
-        <v>1605619.44</v>
+        <v>1834233.0299999998</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -1017,7 +1025,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="10">
-        <v>1577949.48</v>
+        <v>1672410.9</v>
       </c>
       <c r="E8" s="10">
         <v>0</v>
@@ -1027,7 +1035,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>1577949.48</v>
+        <v>1672410.9</v>
       </c>
       <c r="H8" s="10">
         <v>0</v>
@@ -1040,7 +1048,7 @@
       </c>
       <c r="K8" s="11">
         <f t="shared" si="1"/>
-        <v>1577949.48</v>
+        <v>1672410.9</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,17 +1062,17 @@
         <v>6</v>
       </c>
       <c r="D9" s="10">
-        <v>1366019.28</v>
+        <v>1205535.6599999999</v>
       </c>
       <c r="E9" s="10">
         <v>0</v>
       </c>
       <c r="F9" s="10">
-        <v>0</v>
+        <v>330395.52000000002</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
-        <v>1366019.28</v>
+        <v>1535931.18</v>
       </c>
       <c r="H9" s="10">
         <v>0</v>
@@ -1077,7 +1085,7 @@
       </c>
       <c r="K9" s="11">
         <f t="shared" si="1"/>
-        <v>1366019.28</v>
+        <v>1535931.18</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1091,7 +1099,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="10">
-        <v>973972.92</v>
+        <v>1298328.78</v>
       </c>
       <c r="E10" s="10">
         <v>0</v>
@@ -1101,7 +1109,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>973972.92</v>
+        <v>1298328.78</v>
       </c>
       <c r="H10" s="10">
         <v>0</v>
@@ -1114,7 +1122,7 @@
       </c>
       <c r="K10" s="11">
         <f t="shared" si="1"/>
-        <v>973972.92</v>
+        <v>1298328.78</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1128,7 +1136,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="10">
-        <v>952202.88</v>
+        <v>1272496.3799999999</v>
       </c>
       <c r="E11" s="10">
         <v>0</v>
@@ -1138,7 +1146,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>952202.88</v>
+        <v>1272496.3799999999</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
@@ -1151,7 +1159,7 @@
       </c>
       <c r="K11" s="11">
         <f t="shared" si="1"/>
-        <v>952202.88</v>
+        <v>1272496.3799999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1165,7 +1173,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="10">
-        <v>853970.12</v>
+        <v>1115319.8500000001</v>
       </c>
       <c r="E12" s="10">
         <v>0</v>
@@ -1175,7 +1183,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>853970.12</v>
+        <v>1115319.8500000001</v>
       </c>
       <c r="H12" s="10">
         <v>0</v>
@@ -1188,7 +1196,7 @@
       </c>
       <c r="K12" s="11">
         <f t="shared" si="1"/>
-        <v>853970.12</v>
+        <v>1115319.8500000001</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1202,7 +1210,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="10">
-        <v>879365.52</v>
+        <v>1115319.8500000001</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>
@@ -1212,10 +1220,10 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>879365.52</v>
+        <v>1115319.8500000001</v>
       </c>
       <c r="H13" s="10">
-        <v>123465.94</v>
+        <v>188569.49</v>
       </c>
       <c r="I13" s="10">
         <v>0</v>
@@ -1225,7 +1233,7 @@
       </c>
       <c r="K13" s="11">
         <f t="shared" si="1"/>
-        <v>1002831.46</v>
+        <v>1303889.3400000001</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1239,20 +1247,20 @@
         <v>16</v>
       </c>
       <c r="D14" s="10">
-        <v>1097765.96</v>
+        <v>982628.85</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
       </c>
       <c r="F14" s="10">
-        <v>0</v>
+        <v>284428.48</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>1097765.96</v>
+        <v>1267057.33</v>
       </c>
       <c r="H14" s="10">
-        <v>170952.58</v>
+        <v>148870.65</v>
       </c>
       <c r="I14" s="10">
         <v>0</v>
@@ -1262,7 +1270,7 @@
       </c>
       <c r="K14" s="11">
         <f t="shared" si="1"/>
-        <v>1268718.54</v>
+        <v>1415927.98</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1276,7 +1284,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="10">
-        <v>1096156.19</v>
+        <v>1162565.83</v>
       </c>
       <c r="E15" s="10">
         <v>0</v>
@@ -1286,7 +1294,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
-        <v>1096156.19</v>
+        <v>1162565.83</v>
       </c>
       <c r="H15" s="10">
         <v>0</v>
@@ -1299,7 +1307,7 @@
       </c>
       <c r="K15" s="11">
         <f t="shared" si="1"/>
-        <v>1096156.19</v>
+        <v>1162565.83</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1313,7 +1321,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="10">
-        <v>1144659.6000000001</v>
+        <v>1214666.1599999999</v>
       </c>
       <c r="E16" s="10">
         <v>0</v>
@@ -1323,7 +1331,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
-        <v>1144659.6000000001</v>
+        <v>1214666.1599999999</v>
       </c>
       <c r="H16" s="10">
         <v>0</v>
@@ -1336,7 +1344,7 @@
       </c>
       <c r="K16" s="11">
         <f t="shared" si="1"/>
-        <v>1144659.6000000001</v>
+        <v>1214666.1599999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1350,20 +1358,20 @@
         <v>34</v>
       </c>
       <c r="D17" s="10">
-        <v>1117736.52</v>
+        <v>961493.7</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
       </c>
       <c r="F17" s="10">
-        <v>0</v>
+        <v>330395.52000000002</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
-        <v>1117736.52</v>
+        <v>1291889.22</v>
       </c>
       <c r="H17" s="10">
-        <v>18995.43</v>
+        <v>0</v>
       </c>
       <c r="I17" s="10">
         <v>0</v>
@@ -1373,7 +1381,7 @@
       </c>
       <c r="K17" s="11">
         <f t="shared" si="1"/>
-        <v>1136731.95</v>
+        <v>1291889.22</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,7 +1395,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="10">
-        <v>1266840.3999999999</v>
+        <v>1363655.84</v>
       </c>
       <c r="E18" s="10">
         <v>0</v>
@@ -1397,7 +1405,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
-        <v>1266840.3999999999</v>
+        <v>1363655.84</v>
       </c>
       <c r="H18" s="10">
         <v>0</v>
@@ -1410,7 +1418,7 @@
       </c>
       <c r="K18" s="11">
         <f t="shared" si="1"/>
-        <v>1266840.3999999999</v>
+        <v>1363655.84</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1424,7 +1432,7 @@
         <v>52</v>
       </c>
       <c r="D19" s="10">
-        <v>868446.12</v>
+        <v>1166474.31</v>
       </c>
       <c r="E19" s="10">
         <v>0</v>
@@ -1434,7 +1442,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
-        <v>868446.12</v>
+        <v>1166474.31</v>
       </c>
       <c r="H19" s="10">
         <v>0</v>
@@ -1447,7 +1455,7 @@
       </c>
       <c r="K19" s="11">
         <f t="shared" si="1"/>
-        <v>868446.12</v>
+        <v>1166474.31</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1461,17 +1469,17 @@
         <v>44</v>
       </c>
       <c r="D20" s="10">
-        <v>809318.32</v>
+        <v>842107.12</v>
       </c>
       <c r="E20" s="10">
         <v>0</v>
       </c>
       <c r="F20" s="10">
-        <v>0</v>
+        <v>284428.48</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>809318.32</v>
+        <v>1126535.6000000001</v>
       </c>
       <c r="H20" s="10">
         <v>0</v>
@@ -1484,7 +1492,7 @@
       </c>
       <c r="K20" s="11">
         <f t="shared" si="1"/>
-        <v>809318.32</v>
+        <v>1126535.6000000001</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1498,7 +1506,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="10">
-        <v>803978.02</v>
+        <v>1066182.1299999999</v>
       </c>
       <c r="E21" s="10">
         <v>0</v>
@@ -1508,10 +1516,10 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="0"/>
-        <v>803978.02</v>
+        <v>1066182.1299999999</v>
       </c>
       <c r="H21" s="10">
-        <v>123465.8</v>
+        <v>188569.49</v>
       </c>
       <c r="I21" s="10">
         <v>0</v>
@@ -1521,7 +1529,7 @@
       </c>
       <c r="K21" s="11">
         <f t="shared" si="1"/>
-        <v>927443.82000000007</v>
+        <v>1254751.6199999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1535,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="10">
-        <v>1338143.1599999999</v>
+        <v>1421813.28</v>
       </c>
       <c r="E22" s="10">
         <v>0</v>
@@ -1545,7 +1553,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="0"/>
-        <v>1338143.1599999999</v>
+        <v>1421813.28</v>
       </c>
       <c r="H22" s="10">
         <v>0</v>
@@ -1558,7 +1566,7 @@
       </c>
       <c r="K22" s="11">
         <f t="shared" si="1"/>
-        <v>1338143.1599999999</v>
+        <v>1421813.28</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1572,7 +1580,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="10">
-        <v>1147396.24</v>
+        <v>1218944.44</v>
       </c>
       <c r="E23" s="10">
         <v>0</v>
@@ -1582,10 +1590,10 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="0"/>
-        <v>1147396.24</v>
+        <v>1218944.44</v>
       </c>
       <c r="H23" s="10">
-        <v>123466.05</v>
+        <v>119096.52</v>
       </c>
       <c r="I23" s="10">
         <v>0</v>
@@ -1595,7 +1603,7 @@
       </c>
       <c r="K23" s="11">
         <f t="shared" si="1"/>
-        <v>1270862.29</v>
+        <v>1338040.96</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1609,7 +1617,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="10">
-        <v>915309.14</v>
+        <v>980382.67</v>
       </c>
       <c r="E24" s="10">
         <v>0</v>
@@ -1619,10 +1627,10 @@
       </c>
       <c r="G24" s="11">
         <f t="shared" si="0"/>
-        <v>915309.14</v>
+        <v>980382.67</v>
       </c>
       <c r="H24" s="10">
-        <v>56984.59</v>
+        <v>89322.39</v>
       </c>
       <c r="I24" s="10">
         <v>0</v>
@@ -1632,7 +1640,7 @@
       </c>
       <c r="K24" s="11">
         <f t="shared" si="1"/>
-        <v>972293.73</v>
+        <v>1069705.06</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1720,17 +1728,17 @@
         <v>46</v>
       </c>
       <c r="D27" s="10">
-        <v>895257.8</v>
+        <v>744469.6</v>
       </c>
       <c r="E27" s="10">
         <v>0</v>
       </c>
       <c r="F27" s="10">
-        <v>0</v>
+        <v>297227.84000000003</v>
       </c>
       <c r="G27" s="11">
         <f t="shared" si="0"/>
-        <v>895257.8</v>
+        <v>1041697.44</v>
       </c>
       <c r="H27" s="10">
         <v>0</v>
@@ -1743,7 +1751,7 @@
       </c>
       <c r="K27" s="11">
         <f t="shared" si="1"/>
-        <v>895257.8</v>
+        <v>1041697.44</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1757,7 +1765,7 @@
         <v>42</v>
       </c>
       <c r="D28" s="10">
-        <v>874941.48</v>
+        <v>951467.56</v>
       </c>
       <c r="E28" s="10">
         <v>0</v>
@@ -1767,7 +1775,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="0"/>
-        <v>874941.48</v>
+        <v>951467.56</v>
       </c>
       <c r="H28" s="10">
         <v>0</v>
@@ -1780,7 +1788,7 @@
       </c>
       <c r="K28" s="11">
         <f t="shared" si="1"/>
-        <v>874941.48</v>
+        <v>951467.56</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1794,7 +1802,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="10">
-        <v>696741.54</v>
+        <v>739821.75</v>
       </c>
       <c r="E29" s="10">
         <v>0</v>
@@ -1804,7 +1812,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="0"/>
-        <v>696741.54</v>
+        <v>739821.75</v>
       </c>
       <c r="H29" s="10">
         <v>0</v>
@@ -1817,7 +1825,7 @@
       </c>
       <c r="K29" s="11">
         <f t="shared" si="1"/>
-        <v>696741.54</v>
+        <v>739821.75</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1831,7 +1839,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="10">
-        <v>886034.48</v>
+        <v>941829.19</v>
       </c>
       <c r="E30" s="10">
         <v>0</v>
@@ -1841,7 +1849,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="0"/>
-        <v>886034.48</v>
+        <v>941829.19</v>
       </c>
       <c r="H30" s="10">
         <v>0</v>
@@ -1854,7 +1862,7 @@
       </c>
       <c r="K30" s="11">
         <f t="shared" si="1"/>
-        <v>886034.48</v>
+        <v>941829.19</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,7 +1876,7 @@
         <v>58</v>
       </c>
       <c r="D31" s="10">
-        <v>939359.75</v>
+        <v>998713.54</v>
       </c>
       <c r="E31" s="10">
         <v>0</v>
@@ -1878,7 +1886,7 @@
       </c>
       <c r="G31" s="11">
         <f t="shared" si="0"/>
-        <v>939359.75</v>
+        <v>998713.54</v>
       </c>
       <c r="H31" s="10">
         <v>0</v>
@@ -1891,7 +1899,7 @@
       </c>
       <c r="K31" s="11">
         <f t="shared" si="1"/>
-        <v>939359.75</v>
+        <v>998713.54</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1905,7 +1913,7 @@
         <v>65</v>
       </c>
       <c r="D32" s="10">
-        <v>858364.52</v>
+        <v>912914.08</v>
       </c>
       <c r="E32" s="10">
         <v>0</v>
@@ -1915,7 +1923,7 @@
       </c>
       <c r="G32" s="11">
         <f t="shared" si="0"/>
-        <v>858364.52</v>
+        <v>912914.08</v>
       </c>
       <c r="H32" s="10">
         <v>0</v>
@@ -1928,7 +1936,7 @@
       </c>
       <c r="K32" s="11">
         <f t="shared" si="1"/>
-        <v>858364.52</v>
+        <v>912914.08</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1937,22 +1945,22 @@
       <c r="C33" s="13"/>
       <c r="D33" s="10">
         <f>SUM(D3:D32)</f>
-        <v>35745822.399999999</v>
+        <v>38429467.199999996</v>
       </c>
       <c r="E33" s="10">
         <v>0</v>
       </c>
       <c r="F33" s="10">
         <f>SUM(F3:F32)</f>
-        <v>0</v>
+        <v>1964687.2</v>
       </c>
       <c r="G33" s="15">
         <f>SUM(G3:G32)</f>
-        <v>35745822.399999999</v>
+        <v>40394154.399999999</v>
       </c>
       <c r="H33" s="10">
         <f>SUM(H3:H32)</f>
-        <v>788282.96</v>
+        <v>922998.03</v>
       </c>
       <c r="I33" s="14">
         <f>SUM(I3:I32)</f>
@@ -1963,7 +1971,7 @@
       </c>
       <c r="K33" s="15">
         <f>SUM(K3:K32)</f>
-        <v>36534105.359999999</v>
+        <v>41317152.43</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2009,7 +2017,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,17 +2100,17 @@
         <v>12</v>
       </c>
       <c r="D3" s="10">
-        <v>1066206.1200000001</v>
+        <v>1397795.19</v>
       </c>
       <c r="E3" s="10">
         <v>0</v>
       </c>
       <c r="F3" s="10">
-        <v>330395.52000000002</v>
+        <v>0</v>
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G32" si="0">+D3+E3+F3</f>
-        <v>1396601.6400000001</v>
+        <v>1397795.19</v>
       </c>
       <c r="H3" s="10">
         <v>0</v>
@@ -2115,7 +2123,7 @@
       </c>
       <c r="K3" s="11">
         <f t="shared" ref="K3:K32" si="1">+G3+H3</f>
-        <v>1396601.6400000001</v>
+        <v>1397795.19</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -2130,17 +2138,17 @@
         <v>18</v>
       </c>
       <c r="D4" s="10">
-        <v>1331577</v>
+        <v>1653402.57</v>
       </c>
       <c r="E4" s="10">
         <v>0</v>
       </c>
       <c r="F4" s="10">
-        <v>418958.4</v>
+        <v>0</v>
       </c>
       <c r="G4" s="11">
         <f t="shared" si="0"/>
-        <v>1750535.4</v>
+        <v>1653402.57</v>
       </c>
       <c r="H4" s="10">
         <v>0</v>
@@ -2153,7 +2161,7 @@
       </c>
       <c r="K4" s="11">
         <f t="shared" si="1"/>
-        <v>1750535.4</v>
+        <v>1653402.57</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2167,7 +2175,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="10">
-        <v>0</v>
+        <v>1730241.12</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
@@ -2177,10 +2185,10 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1730241.12</v>
       </c>
       <c r="H5" s="10">
-        <v>0</v>
+        <v>188569.49</v>
       </c>
       <c r="I5" s="10">
         <v>0</v>
@@ -2190,7 +2198,7 @@
       </c>
       <c r="K5" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1918810.61</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -2205,17 +2213,17 @@
         <v>54</v>
       </c>
       <c r="D6" s="10">
-        <v>936980</v>
+        <v>1202065.18</v>
       </c>
       <c r="E6" s="10">
         <v>0</v>
       </c>
       <c r="F6" s="10">
-        <v>284428.48</v>
+        <v>0</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
-        <v>1221408.48</v>
+        <v>1202065.18</v>
       </c>
       <c r="H6" s="10">
         <v>0</v>
@@ -2228,7 +2236,7 @@
       </c>
       <c r="K6" s="11">
         <f t="shared" si="1"/>
-        <v>1221408.48</v>
+        <v>1202065.18</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2242,7 +2250,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="10">
-        <v>0</v>
+        <v>1396421.67</v>
       </c>
       <c r="E7" s="10">
         <v>0</v>
@@ -2252,7 +2260,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1396421.67</v>
       </c>
       <c r="H7" s="10">
         <v>0</v>
@@ -2265,7 +2273,7 @@
       </c>
       <c r="K7" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1396421.67</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -2280,7 +2288,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="10">
-        <v>0</v>
+        <v>1672410.9</v>
       </c>
       <c r="E8" s="10">
         <v>0</v>
@@ -2290,7 +2298,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1672410.9</v>
       </c>
       <c r="H8" s="10">
         <v>0</v>
@@ -2303,7 +2311,7 @@
       </c>
       <c r="K8" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1672410.9</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,7 +2325,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="10">
-        <v>0</v>
+        <v>1205535.6599999999</v>
       </c>
       <c r="E9" s="10">
         <v>0</v>
@@ -2327,7 +2335,7 @@
       </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1205535.6599999999</v>
       </c>
       <c r="H9" s="10">
         <v>0</v>
@@ -2340,7 +2348,7 @@
       </c>
       <c r="K9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1205535.6599999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2354,17 +2362,17 @@
         <v>28</v>
       </c>
       <c r="D10" s="10">
-        <v>973972.92</v>
+        <v>1298328.78</v>
       </c>
       <c r="E10" s="10">
         <v>0</v>
       </c>
       <c r="F10" s="10">
-        <v>330395.52000000002</v>
+        <v>0</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>1304368.44</v>
+        <v>1298328.78</v>
       </c>
       <c r="H10" s="10">
         <v>0</v>
@@ -2377,7 +2385,7 @@
       </c>
       <c r="K10" s="11">
         <f t="shared" si="1"/>
-        <v>1304368.44</v>
+        <v>1298328.78</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2391,17 +2399,17 @@
         <v>32</v>
       </c>
       <c r="D11" s="10">
-        <v>952202.88</v>
+        <v>1272496.3799999999</v>
       </c>
       <c r="E11" s="10">
         <v>0</v>
       </c>
       <c r="F11" s="10">
-        <v>330395.52000000002</v>
+        <v>0</v>
       </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>1282598.3999999999</v>
+        <v>1272496.3799999999</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
@@ -2414,7 +2422,7 @@
       </c>
       <c r="K11" s="11">
         <f t="shared" si="1"/>
-        <v>1282598.3999999999</v>
+        <v>1272496.3799999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,17 +2436,17 @@
         <v>56</v>
       </c>
       <c r="D12" s="10">
-        <v>853970.12</v>
+        <v>1115319.8500000001</v>
       </c>
       <c r="E12" s="10">
         <v>0</v>
       </c>
       <c r="F12" s="10">
-        <v>284428.48</v>
+        <v>0</v>
       </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>1138398.6000000001</v>
+        <v>1115319.8500000001</v>
       </c>
       <c r="H12" s="10">
         <v>0</v>
@@ -2451,7 +2459,7 @@
       </c>
       <c r="K12" s="11">
         <f t="shared" si="1"/>
-        <v>1138398.6000000001</v>
+        <v>1115319.8500000001</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2465,20 +2473,20 @@
         <v>36</v>
       </c>
       <c r="D13" s="10">
-        <v>879365.52</v>
+        <v>1115319.8500000001</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>
       </c>
       <c r="F13" s="10">
-        <v>284428.48</v>
+        <v>0</v>
       </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>1163794</v>
+        <v>1115319.8500000001</v>
       </c>
       <c r="H13" s="10">
-        <v>123465.94</v>
+        <v>188569.49</v>
       </c>
       <c r="I13" s="10">
         <v>0</v>
@@ -2488,7 +2496,7 @@
       </c>
       <c r="K13" s="11">
         <f t="shared" si="1"/>
-        <v>1287259.94</v>
+        <v>1303889.3400000001</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2502,7 +2510,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="10">
-        <v>0</v>
+        <v>982628.85</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -2512,10 +2520,10 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>982628.85</v>
       </c>
       <c r="H14" s="10">
-        <v>0</v>
+        <v>148870.65</v>
       </c>
       <c r="I14" s="10">
         <v>0</v>
@@ -2525,7 +2533,7 @@
       </c>
       <c r="K14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1131499.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2539,7 +2547,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="10">
-        <v>0</v>
+        <v>1162565.83</v>
       </c>
       <c r="E15" s="10">
         <v>0</v>
@@ -2549,7 +2557,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1162565.83</v>
       </c>
       <c r="H15" s="10">
         <v>0</v>
@@ -2562,7 +2570,7 @@
       </c>
       <c r="K15" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1162565.83</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2576,7 +2584,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="10">
-        <v>0</v>
+        <v>1214666.1599999999</v>
       </c>
       <c r="E16" s="10">
         <v>0</v>
@@ -2586,7 +2594,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1214666.1599999999</v>
       </c>
       <c r="H16" s="10">
         <v>0</v>
@@ -2599,7 +2607,7 @@
       </c>
       <c r="K16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1214666.1599999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2613,7 +2621,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="10">
-        <v>0</v>
+        <v>961493.7</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
@@ -2623,7 +2631,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>961493.7</v>
       </c>
       <c r="H17" s="10">
         <v>0</v>
@@ -2636,7 +2644,7 @@
       </c>
       <c r="K17" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>961493.7</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2650,7 +2658,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="10">
-        <v>0</v>
+        <v>1363655.84</v>
       </c>
       <c r="E18" s="10">
         <v>0</v>
@@ -2660,7 +2668,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1363655.84</v>
       </c>
       <c r="H18" s="10">
         <v>0</v>
@@ -2673,7 +2681,7 @@
       </c>
       <c r="K18" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1363655.84</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2687,17 +2695,17 @@
         <v>52</v>
       </c>
       <c r="D19" s="10">
-        <v>868446.12</v>
+        <v>1166474.31</v>
       </c>
       <c r="E19" s="10">
         <v>0</v>
       </c>
       <c r="F19" s="10">
-        <v>330395.52000000002</v>
+        <v>0</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
-        <v>1198841.6400000001</v>
+        <v>1166474.31</v>
       </c>
       <c r="H19" s="10">
         <v>0</v>
@@ -2710,7 +2718,7 @@
       </c>
       <c r="K19" s="11">
         <f t="shared" si="1"/>
-        <v>1198841.6400000001</v>
+        <v>1166474.31</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2724,7 +2732,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="10">
-        <v>0</v>
+        <v>842107.12</v>
       </c>
       <c r="E20" s="10">
         <v>0</v>
@@ -2734,7 +2742,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>842107.12</v>
       </c>
       <c r="H20" s="10">
         <v>0</v>
@@ -2747,7 +2755,7 @@
       </c>
       <c r="K20" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>842107.12</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2761,20 +2769,20 @@
         <v>22</v>
       </c>
       <c r="D21" s="10">
-        <v>803978.02</v>
+        <v>1066182.1299999999</v>
       </c>
       <c r="E21" s="10">
         <v>0</v>
       </c>
       <c r="F21" s="10">
-        <v>305154.64</v>
+        <v>0</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="0"/>
-        <v>1109132.6600000001</v>
+        <v>1066182.1299999999</v>
       </c>
       <c r="H21" s="10">
-        <v>123465.8</v>
+        <v>188569.49</v>
       </c>
       <c r="I21" s="10">
         <v>0</v>
@@ -2784,7 +2792,7 @@
       </c>
       <c r="K21" s="11">
         <f t="shared" si="1"/>
-        <v>1232598.4600000002</v>
+        <v>1254751.6199999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2798,7 +2806,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="10">
-        <v>0</v>
+        <v>1421813.28</v>
       </c>
       <c r="E22" s="10">
         <v>0</v>
@@ -2808,7 +2816,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1421813.28</v>
       </c>
       <c r="H22" s="10">
         <v>0</v>
@@ -2821,7 +2829,7 @@
       </c>
       <c r="K22" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1421813.28</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2835,7 +2843,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="10">
-        <v>0</v>
+        <v>1218944.44</v>
       </c>
       <c r="E23" s="10">
         <v>0</v>
@@ -2845,10 +2853,10 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1218944.44</v>
       </c>
       <c r="H23" s="10">
-        <v>0</v>
+        <v>119096.52</v>
       </c>
       <c r="I23" s="10">
         <v>0</v>
@@ -2858,7 +2866,7 @@
       </c>
       <c r="K23" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1338040.96</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2872,7 +2880,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="10">
-        <v>0</v>
+        <v>980382.67</v>
       </c>
       <c r="E24" s="10">
         <v>0</v>
@@ -2882,10 +2890,10 @@
       </c>
       <c r="G24" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>980382.67</v>
       </c>
       <c r="H24" s="10">
-        <v>0</v>
+        <v>89322.39</v>
       </c>
       <c r="I24" s="10">
         <v>0</v>
@@ -2895,7 +2903,7 @@
       </c>
       <c r="K24" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1069705.06</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2909,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="10">
-        <v>0</v>
+        <v>2700000</v>
       </c>
       <c r="E25" s="10">
         <v>0</v>
@@ -2919,7 +2927,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2700000</v>
       </c>
       <c r="H25" s="10">
         <v>0</v>
@@ -2932,7 +2940,7 @@
       </c>
       <c r="K25" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2700000</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2946,7 +2954,7 @@
         <v>59</v>
       </c>
       <c r="D26" s="10">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="E26" s="10">
         <v>0</v>
@@ -2956,7 +2964,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="H26" s="10">
         <v>0</v>
@@ -2969,7 +2977,7 @@
       </c>
       <c r="K26" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2983,7 +2991,7 @@
         <v>46</v>
       </c>
       <c r="D27" s="10">
-        <v>0</v>
+        <v>744469.6</v>
       </c>
       <c r="E27" s="10">
         <v>0</v>
@@ -2993,7 +3001,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>744469.6</v>
       </c>
       <c r="H27" s="10">
         <v>0</v>
@@ -3006,7 +3014,7 @@
       </c>
       <c r="K27" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>744469.6</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3020,7 +3028,7 @@
         <v>42</v>
       </c>
       <c r="D28" s="10">
-        <v>0</v>
+        <v>951467.56</v>
       </c>
       <c r="E28" s="10">
         <v>0</v>
@@ -3030,7 +3038,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>951467.56</v>
       </c>
       <c r="H28" s="10">
         <v>0</v>
@@ -3043,7 +3051,7 @@
       </c>
       <c r="K28" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>951467.56</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3057,7 +3065,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="10">
-        <v>0</v>
+        <v>739821.75</v>
       </c>
       <c r="E29" s="10">
         <v>0</v>
@@ -3067,7 +3075,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>739821.75</v>
       </c>
       <c r="H29" s="10">
         <v>0</v>
@@ -3080,7 +3088,7 @@
       </c>
       <c r="K29" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>739821.75</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3094,7 +3102,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="10">
-        <v>0</v>
+        <v>941829.19</v>
       </c>
       <c r="E30" s="10">
         <v>0</v>
@@ -3104,7 +3112,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>941829.19</v>
       </c>
       <c r="H30" s="10">
         <v>0</v>
@@ -3117,7 +3125,7 @@
       </c>
       <c r="K30" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>941829.19</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3131,7 +3139,7 @@
         <v>58</v>
       </c>
       <c r="D31" s="10">
-        <v>0</v>
+        <v>998713.54</v>
       </c>
       <c r="E31" s="10">
         <v>0</v>
@@ -3141,7 +3149,7 @@
       </c>
       <c r="G31" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>998713.54</v>
       </c>
       <c r="H31" s="10">
         <v>0</v>
@@ -3154,7 +3162,7 @@
       </c>
       <c r="K31" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>998713.54</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3168,7 +3176,7 @@
         <v>65</v>
       </c>
       <c r="D32" s="10">
-        <v>0</v>
+        <v>912914.08</v>
       </c>
       <c r="E32" s="10">
         <v>0</v>
@@ -3178,7 +3186,7 @@
       </c>
       <c r="G32" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>912914.08</v>
       </c>
       <c r="H32" s="10">
         <v>0</v>
@@ -3191,7 +3199,7 @@
       </c>
       <c r="K32" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>912914.08</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -3200,22 +3208,22 @@
       <c r="C33" s="13"/>
       <c r="D33" s="10">
         <f>SUM(D3:D32)</f>
-        <v>8666698.7000000011</v>
+        <v>38429467.199999996</v>
       </c>
       <c r="E33" s="10">
         <v>0</v>
       </c>
       <c r="F33" s="10">
         <f>SUM(F3:F32)</f>
-        <v>2898980.56</v>
+        <v>0</v>
       </c>
       <c r="G33" s="15">
         <f>SUM(G3:G32)</f>
-        <v>11565679.26</v>
+        <v>38429467.199999996</v>
       </c>
       <c r="H33" s="10">
         <f>SUM(H3:H32)</f>
-        <v>246931.74</v>
+        <v>922998.03</v>
       </c>
       <c r="I33" s="14">
         <f>SUM(I3:I32)</f>
@@ -3226,7 +3234,7 @@
       </c>
       <c r="K33" s="15">
         <f>SUM(K3:K32)</f>
-        <v>11812611</v>
+        <v>39352465.229999997</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3263,7 +3271,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,7 +3291,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -3336,1117 +3344,1144 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
         <f t="shared" ref="G3:G32" si="0">+D3+E3+F3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
         <f t="shared" ref="K3:K32" si="1">+G3+H3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="17">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="17">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1"/>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="17">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="17">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1"/>
+      <c r="D7" s="19">
+        <v>1396421.67</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>437811.36</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>1834233.0299999998</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="1"/>
+        <v>1834233.0299999998</v>
+      </c>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="17">
         <v>15</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="17">
         <v>19</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D9" s="19">
+        <v>1205535.6599999999</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>330395.52000000002</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="0"/>
+        <v>1535931.18</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" si="1"/>
+        <v>1535931.18</v>
+      </c>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="17">
         <v>25</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="17">
         <v>29</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="17">
         <v>31</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20">
+        <v>0</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="17">
         <v>32</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="17">
         <v>33</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D14" s="19">
+        <v>982628.85</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <v>284428.48</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" si="0"/>
+        <v>1267057.33</v>
+      </c>
+      <c r="H14" s="19">
+        <v>148870.65</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" si="1"/>
+        <v>1415927.98</v>
+      </c>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="17">
         <v>34</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="17">
         <v>37</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="D16" s="19">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20">
+        <v>0</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <v>41</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="D17" s="19">
+        <v>961493.7</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <v>330395.52000000002</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="0"/>
+        <v>1291889.22</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="20">
+        <v>0</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" si="1"/>
+        <v>1291889.22</v>
+      </c>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>48</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0</v>
-      </c>
-      <c r="K18" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="D18" s="19">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>55</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>58</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="10">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11">
-        <v>0</v>
-      </c>
-      <c r="K20" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="D20" s="19">
+        <v>842107.12</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19">
+        <v>284428.48</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" si="0"/>
+        <v>1126535.6000000001</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="20">
+        <f t="shared" si="1"/>
+        <v>1126535.6000000001</v>
+      </c>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
         <v>62</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20">
+        <v>0</v>
+      </c>
+      <c r="K21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <v>63</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10">
-        <v>0</v>
-      </c>
-      <c r="J22" s="11">
-        <v>0</v>
-      </c>
-      <c r="K22" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="D22" s="19">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+      <c r="I22" s="19">
+        <v>0</v>
+      </c>
+      <c r="J22" s="20">
+        <v>0</v>
+      </c>
+      <c r="K22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <v>64</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0</v>
-      </c>
-      <c r="I23" s="10">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="D23" s="19">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="J23" s="20">
+        <v>0</v>
+      </c>
+      <c r="K23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
         <v>65</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10">
-        <v>0</v>
-      </c>
-      <c r="J24" s="11">
-        <v>0</v>
-      </c>
-      <c r="K24" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0</v>
+      </c>
+      <c r="G24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
+      <c r="J24" s="20">
+        <v>0</v>
+      </c>
+      <c r="K24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <v>66</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0</v>
+      </c>
+      <c r="G25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0</v>
+      </c>
+      <c r="I25" s="19">
+        <v>0</v>
+      </c>
+      <c r="J25" s="20">
+        <v>0</v>
+      </c>
+      <c r="K25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
         <v>67</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0</v>
-      </c>
-      <c r="G26" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10">
-        <v>0</v>
-      </c>
-      <c r="J26" s="11">
-        <v>0</v>
-      </c>
-      <c r="K26" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="20">
+        <v>0</v>
+      </c>
+      <c r="K26" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
         <v>68</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0</v>
-      </c>
-      <c r="G27" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10">
-        <v>0</v>
-      </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="D27" s="19">
+        <v>744469.6</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
+        <v>297227.84000000003</v>
+      </c>
+      <c r="G27" s="20">
+        <f t="shared" si="0"/>
+        <v>1041697.44</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0</v>
+      </c>
+      <c r="J27" s="20">
+        <v>0</v>
+      </c>
+      <c r="K27" s="20">
+        <f t="shared" si="1"/>
+        <v>1041697.44</v>
+      </c>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
         <v>69</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0</v>
-      </c>
-      <c r="G28" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
-        <v>0</v>
-      </c>
-      <c r="I28" s="10">
-        <v>0</v>
-      </c>
-      <c r="J28" s="11">
-        <v>0</v>
-      </c>
-      <c r="K28" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="D28" s="19">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
+      <c r="G28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
+        <v>0</v>
+      </c>
+      <c r="J28" s="20">
+        <v>0</v>
+      </c>
+      <c r="K28" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <v>70</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="10">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0</v>
-      </c>
-      <c r="G29" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="D29" s="19">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19">
+        <v>0</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19">
+        <v>0</v>
+      </c>
+      <c r="J29" s="20">
+        <v>0</v>
+      </c>
+      <c r="K29" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
         <v>71</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="10">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0</v>
-      </c>
-      <c r="G30" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0</v>
-      </c>
-      <c r="I30" s="10">
-        <v>0</v>
-      </c>
-      <c r="J30" s="11">
-        <v>0</v>
-      </c>
-      <c r="K30" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="D30" s="19">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0</v>
+      </c>
+      <c r="G30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19">
+        <v>0</v>
+      </c>
+      <c r="J30" s="20">
+        <v>0</v>
+      </c>
+      <c r="K30" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
         <v>75</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="10">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-      <c r="F31" s="10">
-        <v>0</v>
-      </c>
-      <c r="G31" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="10">
-        <v>0</v>
-      </c>
-      <c r="I31" s="10">
-        <v>0</v>
-      </c>
-      <c r="J31" s="11">
-        <v>0</v>
-      </c>
-      <c r="K31" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="D31" s="19">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0</v>
+      </c>
+      <c r="F31" s="19">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="19">
+        <v>0</v>
+      </c>
+      <c r="I31" s="19">
+        <v>0</v>
+      </c>
+      <c r="J31" s="20">
+        <v>0</v>
+      </c>
+      <c r="K31" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
         <v>76</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="10">
-        <v>0</v>
-      </c>
-      <c r="G32" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10">
-        <v>0</v>
-      </c>
-      <c r="J32" s="11">
-        <v>0</v>
-      </c>
-      <c r="K32" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D32" s="19">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0</v>
+      </c>
+      <c r="F32" s="19">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="19">
+        <v>0</v>
+      </c>
+      <c r="I32" s="19">
+        <v>0</v>
+      </c>
+      <c r="J32" s="20">
+        <v>0</v>
+      </c>
+      <c r="K32" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="22"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
@@ -4454,22 +4489,22 @@
       <c r="C33" s="13"/>
       <c r="D33" s="10">
         <f>SUM(D3:D32)</f>
-        <v>0</v>
+        <v>6132656.5999999996</v>
       </c>
       <c r="E33" s="10">
         <v>0</v>
       </c>
       <c r="F33" s="10">
         <f>SUM(F3:F32)</f>
-        <v>0</v>
+        <v>1964687.2</v>
       </c>
       <c r="G33" s="15">
         <f>SUM(G3:G32)</f>
-        <v>0</v>
+        <v>8097343.7999999989</v>
       </c>
       <c r="H33" s="10">
         <f>SUM(H3:H32)</f>
-        <v>0</v>
+        <v>148870.65</v>
       </c>
       <c r="I33" s="14">
         <f>SUM(I3:I32)</f>
@@ -4480,7 +4515,7 @@
       </c>
       <c r="K33" s="15">
         <f>SUM(K3:K32)</f>
-        <v>0</v>
+        <v>8246214.4499999993</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
